--- a/students.xlsx
+++ b/students.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'263930'!$7:$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="70">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -297,12 +297,15 @@
   <si>
     <t>№</t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,13 +316,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -827,73 +823,73 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1243,8 +1239,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
@@ -1425,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
@@ -1530,7 +1526,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -1565,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
@@ -1600,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>5</v>
@@ -1670,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
@@ -1740,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -1845,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>5</v>
@@ -1985,7 +1981,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>5</v>
@@ -2020,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>5</v>
@@ -2160,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>5</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -7,17 +7,19 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
-    <sheet name="263930" sheetId="1" r:id="rId1"/>
+    <sheet name="263929" sheetId="3" r:id="rId1"/>
+    <sheet name="263930" sheetId="1" r:id="rId2"/>
+    <sheet name="263931" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'263930'!$7:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'263930'!$7:$7</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="182">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -299,6 +301,382 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Группа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: НМТ-263931</t>
+    </r>
+  </si>
+  <si>
+    <t>Авдеева Н.А.</t>
+  </si>
+  <si>
+    <t>53612907</t>
+  </si>
+  <si>
+    <t>Белоусов И.А.</t>
+  </si>
+  <si>
+    <t>53612906</t>
+  </si>
+  <si>
+    <t>Быков В.Н.</t>
+  </si>
+  <si>
+    <t>53612912</t>
+  </si>
+  <si>
+    <t>Гареев В.Р.</t>
+  </si>
+  <si>
+    <t>53612913</t>
+  </si>
+  <si>
+    <t>Гилязов Р.Н.</t>
+  </si>
+  <si>
+    <t>53612903</t>
+  </si>
+  <si>
+    <t>Горнов А.В.</t>
+  </si>
+  <si>
+    <t>53612901</t>
+  </si>
+  <si>
+    <t>Дербушева В.А.</t>
+  </si>
+  <si>
+    <t>53612914</t>
+  </si>
+  <si>
+    <t>Дьячкова Д.А.</t>
+  </si>
+  <si>
+    <t>53612909</t>
+  </si>
+  <si>
+    <t>Жуков Д.А.</t>
+  </si>
+  <si>
+    <t>53612915</t>
+  </si>
+  <si>
+    <t>Калинин А.Р.</t>
+  </si>
+  <si>
+    <t>53612920</t>
+  </si>
+  <si>
+    <t>Конюхов А.С.</t>
+  </si>
+  <si>
+    <t>53612902</t>
+  </si>
+  <si>
+    <t>Малышев М.Д.</t>
+  </si>
+  <si>
+    <t>53612905</t>
+  </si>
+  <si>
+    <t>Мирзоев Ё.М.</t>
+  </si>
+  <si>
+    <t>53612922</t>
+  </si>
+  <si>
+    <t>Насибуллин Д.А.</t>
+  </si>
+  <si>
+    <t>53612908</t>
+  </si>
+  <si>
+    <t>Петров И.А.</t>
+  </si>
+  <si>
+    <t>53612919</t>
+  </si>
+  <si>
+    <t>Порфирьев М.В.</t>
+  </si>
+  <si>
+    <t>53612916</t>
+  </si>
+  <si>
+    <t>Романенко И.С.</t>
+  </si>
+  <si>
+    <t>53612910</t>
+  </si>
+  <si>
+    <t>Сабанов А.Е.</t>
+  </si>
+  <si>
+    <t>53612911</t>
+  </si>
+  <si>
+    <t>Темирходжаев К.И.</t>
+  </si>
+  <si>
+    <t>53612924</t>
+  </si>
+  <si>
+    <t>Умматкулов М.У.</t>
+  </si>
+  <si>
+    <t>53612923</t>
+  </si>
+  <si>
+    <t>Ченбаева Ю.М.</t>
+  </si>
+  <si>
+    <t>53612918</t>
+  </si>
+  <si>
+    <t>Чернега П.И.</t>
+  </si>
+  <si>
+    <t>53612921</t>
+  </si>
+  <si>
+    <t>Ширяева О.А.</t>
+  </si>
+  <si>
+    <t>53612917</t>
+  </si>
+  <si>
+    <t>Юсупов К.С.</t>
+  </si>
+  <si>
+    <t>53612925</t>
+  </si>
+  <si>
+    <t>Якушев М.В.</t>
+  </si>
+  <si>
+    <t>53612904</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Группа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: НМТ-263929</t>
+    </r>
+  </si>
+  <si>
+    <t>Бормотов П.А.</t>
+  </si>
+  <si>
+    <t>53612722</t>
+  </si>
+  <si>
+    <t>Васнин Е.А.</t>
+  </si>
+  <si>
+    <t>53612719</t>
+  </si>
+  <si>
+    <t>Верхоглядова А.А.</t>
+  </si>
+  <si>
+    <t>05605807</t>
+  </si>
+  <si>
+    <t>Вершинин Д.А.</t>
+  </si>
+  <si>
+    <t>53612725</t>
+  </si>
+  <si>
+    <t>Глебов А.Б.</t>
+  </si>
+  <si>
+    <t>53612708</t>
+  </si>
+  <si>
+    <t>Задорин Д.А.</t>
+  </si>
+  <si>
+    <t>53612716</t>
+  </si>
+  <si>
+    <t>Зырянов А.В.</t>
+  </si>
+  <si>
+    <t>53612701</t>
+  </si>
+  <si>
+    <t>Кандыба Н.Д.</t>
+  </si>
+  <si>
+    <t>53612723</t>
+  </si>
+  <si>
+    <t>Кармакулин В.А.</t>
+  </si>
+  <si>
+    <t>05605818</t>
+  </si>
+  <si>
+    <t>Ковтун К.С.</t>
+  </si>
+  <si>
+    <t>53612727</t>
+  </si>
+  <si>
+    <t>Кочкин Д.В.</t>
+  </si>
+  <si>
+    <t>53612704</t>
+  </si>
+  <si>
+    <t>Куксин В.Е.</t>
+  </si>
+  <si>
+    <t>53612718</t>
+  </si>
+  <si>
+    <t>Лаптев А.А.</t>
+  </si>
+  <si>
+    <t>53612720</t>
+  </si>
+  <si>
+    <t>Литвин Т.А.</t>
+  </si>
+  <si>
+    <t>53612713</t>
+  </si>
+  <si>
+    <t>Логиновских А.Д.</t>
+  </si>
+  <si>
+    <t>53612721</t>
+  </si>
+  <si>
+    <t>Малыш А.В.</t>
+  </si>
+  <si>
+    <t>53612724</t>
+  </si>
+  <si>
+    <t>Марфицына Д.А.</t>
+  </si>
+  <si>
+    <t>05605819</t>
+  </si>
+  <si>
+    <t>Неволин С.Д.</t>
+  </si>
+  <si>
+    <t>53612726</t>
+  </si>
+  <si>
+    <t>Овчинников Д.С.</t>
+  </si>
+  <si>
+    <t>53612710</t>
+  </si>
+  <si>
+    <t>Попов А.В.</t>
+  </si>
+  <si>
+    <t>53612703</t>
+  </si>
+  <si>
+    <t>Сметанина А.А.</t>
+  </si>
+  <si>
+    <t>53612711</t>
+  </si>
+  <si>
+    <t>Стахеев И.И.</t>
+  </si>
+  <si>
+    <t>53612715</t>
+  </si>
+  <si>
+    <t>Сумина В.А.</t>
+  </si>
+  <si>
+    <t>53612712</t>
+  </si>
+  <si>
+    <t>Терентьева Д.Н.</t>
+  </si>
+  <si>
+    <t>53612709</t>
+  </si>
+  <si>
+    <t>Федотовских Ю.А.</t>
+  </si>
+  <si>
+    <t>53612706</t>
+  </si>
+  <si>
+    <t>Церникель А.А.</t>
+  </si>
+  <si>
+    <t>53612702</t>
+  </si>
+  <si>
+    <t>Цыков С.А.</t>
+  </si>
+  <si>
+    <t>53612714</t>
+  </si>
+  <si>
+    <t>Чебыкин И.В.</t>
+  </si>
+  <si>
+    <t>53612705</t>
+  </si>
+  <si>
+    <t>Чурцев К.В.</t>
+  </si>
+  <si>
+    <t>53612717</t>
+  </si>
+  <si>
+    <t>Шайхутдинова Д.С.</t>
+  </si>
+  <si>
+    <t>53612707</t>
   </si>
 </sst>
 </file>
@@ -865,7 +1243,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,6 +1257,9 @@
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,12 +1615,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="25" customWidth="1"/>
+    <col min="258" max="267" width="25" customWidth="1"/>
+    <col min="514" max="523" width="25" customWidth="1"/>
+    <col min="770" max="779" width="25" customWidth="1"/>
+    <col min="1026" max="1035" width="25" customWidth="1"/>
+    <col min="1282" max="1291" width="25" customWidth="1"/>
+    <col min="1538" max="1547" width="25" customWidth="1"/>
+    <col min="1794" max="1803" width="25" customWidth="1"/>
+    <col min="2050" max="2059" width="25" customWidth="1"/>
+    <col min="2306" max="2315" width="25" customWidth="1"/>
+    <col min="2562" max="2571" width="25" customWidth="1"/>
+    <col min="2818" max="2827" width="25" customWidth="1"/>
+    <col min="3074" max="3083" width="25" customWidth="1"/>
+    <col min="3330" max="3339" width="25" customWidth="1"/>
+    <col min="3586" max="3595" width="25" customWidth="1"/>
+    <col min="3842" max="3851" width="25" customWidth="1"/>
+    <col min="4098" max="4107" width="25" customWidth="1"/>
+    <col min="4354" max="4363" width="25" customWidth="1"/>
+    <col min="4610" max="4619" width="25" customWidth="1"/>
+    <col min="4866" max="4875" width="25" customWidth="1"/>
+    <col min="5122" max="5131" width="25" customWidth="1"/>
+    <col min="5378" max="5387" width="25" customWidth="1"/>
+    <col min="5634" max="5643" width="25" customWidth="1"/>
+    <col min="5890" max="5899" width="25" customWidth="1"/>
+    <col min="6146" max="6155" width="25" customWidth="1"/>
+    <col min="6402" max="6411" width="25" customWidth="1"/>
+    <col min="6658" max="6667" width="25" customWidth="1"/>
+    <col min="6914" max="6923" width="25" customWidth="1"/>
+    <col min="7170" max="7179" width="25" customWidth="1"/>
+    <col min="7426" max="7435" width="25" customWidth="1"/>
+    <col min="7682" max="7691" width="25" customWidth="1"/>
+    <col min="7938" max="7947" width="25" customWidth="1"/>
+    <col min="8194" max="8203" width="25" customWidth="1"/>
+    <col min="8450" max="8459" width="25" customWidth="1"/>
+    <col min="8706" max="8715" width="25" customWidth="1"/>
+    <col min="8962" max="8971" width="25" customWidth="1"/>
+    <col min="9218" max="9227" width="25" customWidth="1"/>
+    <col min="9474" max="9483" width="25" customWidth="1"/>
+    <col min="9730" max="9739" width="25" customWidth="1"/>
+    <col min="9986" max="9995" width="25" customWidth="1"/>
+    <col min="10242" max="10251" width="25" customWidth="1"/>
+    <col min="10498" max="10507" width="25" customWidth="1"/>
+    <col min="10754" max="10763" width="25" customWidth="1"/>
+    <col min="11010" max="11019" width="25" customWidth="1"/>
+    <col min="11266" max="11275" width="25" customWidth="1"/>
+    <col min="11522" max="11531" width="25" customWidth="1"/>
+    <col min="11778" max="11787" width="25" customWidth="1"/>
+    <col min="12034" max="12043" width="25" customWidth="1"/>
+    <col min="12290" max="12299" width="25" customWidth="1"/>
+    <col min="12546" max="12555" width="25" customWidth="1"/>
+    <col min="12802" max="12811" width="25" customWidth="1"/>
+    <col min="13058" max="13067" width="25" customWidth="1"/>
+    <col min="13314" max="13323" width="25" customWidth="1"/>
+    <col min="13570" max="13579" width="25" customWidth="1"/>
+    <col min="13826" max="13835" width="25" customWidth="1"/>
+    <col min="14082" max="14091" width="25" customWidth="1"/>
+    <col min="14338" max="14347" width="25" customWidth="1"/>
+    <col min="14594" max="14603" width="25" customWidth="1"/>
+    <col min="14850" max="14859" width="25" customWidth="1"/>
+    <col min="15106" max="15115" width="25" customWidth="1"/>
+    <col min="15362" max="15371" width="25" customWidth="1"/>
+    <col min="15618" max="15627" width="25" customWidth="1"/>
+    <col min="15874" max="15883" width="25" customWidth="1"/>
+    <col min="16130" max="16139" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43042</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>69</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>77</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>78</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>81</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>83</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>85</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>86</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>88</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>89</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1249,57 +2857,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,4 +3834,1056 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="47" fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="25" customWidth="1"/>
+    <col min="258" max="267" width="25" customWidth="1"/>
+    <col min="514" max="523" width="25" customWidth="1"/>
+    <col min="770" max="779" width="25" customWidth="1"/>
+    <col min="1026" max="1035" width="25" customWidth="1"/>
+    <col min="1282" max="1291" width="25" customWidth="1"/>
+    <col min="1538" max="1547" width="25" customWidth="1"/>
+    <col min="1794" max="1803" width="25" customWidth="1"/>
+    <col min="2050" max="2059" width="25" customWidth="1"/>
+    <col min="2306" max="2315" width="25" customWidth="1"/>
+    <col min="2562" max="2571" width="25" customWidth="1"/>
+    <col min="2818" max="2827" width="25" customWidth="1"/>
+    <col min="3074" max="3083" width="25" customWidth="1"/>
+    <col min="3330" max="3339" width="25" customWidth="1"/>
+    <col min="3586" max="3595" width="25" customWidth="1"/>
+    <col min="3842" max="3851" width="25" customWidth="1"/>
+    <col min="4098" max="4107" width="25" customWidth="1"/>
+    <col min="4354" max="4363" width="25" customWidth="1"/>
+    <col min="4610" max="4619" width="25" customWidth="1"/>
+    <col min="4866" max="4875" width="25" customWidth="1"/>
+    <col min="5122" max="5131" width="25" customWidth="1"/>
+    <col min="5378" max="5387" width="25" customWidth="1"/>
+    <col min="5634" max="5643" width="25" customWidth="1"/>
+    <col min="5890" max="5899" width="25" customWidth="1"/>
+    <col min="6146" max="6155" width="25" customWidth="1"/>
+    <col min="6402" max="6411" width="25" customWidth="1"/>
+    <col min="6658" max="6667" width="25" customWidth="1"/>
+    <col min="6914" max="6923" width="25" customWidth="1"/>
+    <col min="7170" max="7179" width="25" customWidth="1"/>
+    <col min="7426" max="7435" width="25" customWidth="1"/>
+    <col min="7682" max="7691" width="25" customWidth="1"/>
+    <col min="7938" max="7947" width="25" customWidth="1"/>
+    <col min="8194" max="8203" width="25" customWidth="1"/>
+    <col min="8450" max="8459" width="25" customWidth="1"/>
+    <col min="8706" max="8715" width="25" customWidth="1"/>
+    <col min="8962" max="8971" width="25" customWidth="1"/>
+    <col min="9218" max="9227" width="25" customWidth="1"/>
+    <col min="9474" max="9483" width="25" customWidth="1"/>
+    <col min="9730" max="9739" width="25" customWidth="1"/>
+    <col min="9986" max="9995" width="25" customWidth="1"/>
+    <col min="10242" max="10251" width="25" customWidth="1"/>
+    <col min="10498" max="10507" width="25" customWidth="1"/>
+    <col min="10754" max="10763" width="25" customWidth="1"/>
+    <col min="11010" max="11019" width="25" customWidth="1"/>
+    <col min="11266" max="11275" width="25" customWidth="1"/>
+    <col min="11522" max="11531" width="25" customWidth="1"/>
+    <col min="11778" max="11787" width="25" customWidth="1"/>
+    <col min="12034" max="12043" width="25" customWidth="1"/>
+    <col min="12290" max="12299" width="25" customWidth="1"/>
+    <col min="12546" max="12555" width="25" customWidth="1"/>
+    <col min="12802" max="12811" width="25" customWidth="1"/>
+    <col min="13058" max="13067" width="25" customWidth="1"/>
+    <col min="13314" max="13323" width="25" customWidth="1"/>
+    <col min="13570" max="13579" width="25" customWidth="1"/>
+    <col min="13826" max="13835" width="25" customWidth="1"/>
+    <col min="14082" max="14091" width="25" customWidth="1"/>
+    <col min="14338" max="14347" width="25" customWidth="1"/>
+    <col min="14594" max="14603" width="25" customWidth="1"/>
+    <col min="14850" max="14859" width="25" customWidth="1"/>
+    <col min="15106" max="15115" width="25" customWidth="1"/>
+    <col min="15362" max="15371" width="25" customWidth="1"/>
+    <col min="15618" max="15627" width="25" customWidth="1"/>
+    <col min="15874" max="15883" width="25" customWidth="1"/>
+    <col min="16130" max="16139" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43046</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>104</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>105</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>106</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>107</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>109</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>110</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>112</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>113</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>114</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>115</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>119</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>120</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>121</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>122</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>123</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>124</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,152 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stas</author>
+  </authors>
+  <commentList>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stas</author>
+  </authors>
+  <commentList>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Беда с IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Беда с IP
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="183">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -678,12 +822,15 @@
   <si>
     <t>53612707</t>
   </si>
+  <si>
+    <t>~</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +1032,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1267,10 +1427,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1614,11 +1774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1873,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
@@ -1929,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -2104,7 +2264,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
@@ -2314,7 +2474,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>5</v>
@@ -2489,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>5</v>
@@ -2559,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>5</v>
@@ -2594,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>5</v>
@@ -2629,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
@@ -2734,7 +2894,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>5</v>
@@ -2769,7 +2929,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>5</v>
@@ -2837,6 +2997,7 @@
     <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2880,7 +3041,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
@@ -2890,7 +3051,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8"/>
@@ -3837,11 +3998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +4097,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
@@ -3946,7 +4107,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="8"/>
@@ -4081,8 +4242,9 @@
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
+      <c r="E11" s="4" t="str">
+        <f>"+?"</f>
+        <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>5</v>
@@ -4152,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -4187,7 +4349,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -4222,7 +4384,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>5</v>
@@ -4362,7 +4524,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>5</v>
@@ -4397,7 +4559,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -4432,7 +4594,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
@@ -4502,7 +4664,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>5</v>
@@ -4642,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>5</v>
@@ -4712,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>5</v>
@@ -4817,7 +4979,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>5</v>
@@ -4885,5 +5047,6 @@
     <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -4001,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4839,7 +4839,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>5</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="183">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -3008,8 +3008,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,8 +3087,8 @@
       <c r="E8" s="5">
         <v>43040</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
+      <c r="F8" s="5">
+        <v>43047</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -3158,7 +3158,7 @@
         <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
@@ -3193,7 +3193,7 @@
         <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>5</v>
@@ -3227,9 +3227,7 @@
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>69</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
@@ -3368,7 +3366,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
@@ -3753,7 +3751,7 @@
         <v>69</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>5</v>
@@ -3928,7 +3926,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -4001,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,7 +4171,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -3009,7 +3009,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3611,7 @@
         <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="183">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -1777,13 +1777,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="25" customWidth="1"/>
+    <col min="2" max="4" width="25" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -1916,8 +1918,8 @@
       <c r="E8" s="5">
         <v>43042</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
+      <c r="F8" s="5">
+        <v>43049</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1952,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -2092,7 +2094,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>5</v>
@@ -2267,7 +2269,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>5</v>
@@ -2337,7 +2339,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>
@@ -2407,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -2442,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -2652,7 +2654,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>5</v>
@@ -2722,7 +2724,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>5</v>
@@ -2757,7 +2759,7 @@
         <v>69</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -2792,7 +2794,7 @@
         <v>69</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>5</v>
@@ -2897,7 +2899,7 @@
         <v>69</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>5</v>
@@ -2932,7 +2934,7 @@
         <v>69</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>5</v>
@@ -3008,7 +3010,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -54,6 +54,41 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stas</author>
+  </authors>
+  <commentList>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Нет DHCP
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stas</author>
@@ -1777,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3004,14 +3039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -3994,6 +4029,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="47" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -94,6 +94,30 @@
     <author>stas</author>
   </authors>
   <commentList>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Нет статического IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
@@ -143,6 +167,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E21" authorId="0">
       <text>
         <r>
@@ -165,6 +213,30 @@
           <t xml:space="preserve">
 Беда с IP
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Всё плохо</t>
         </r>
       </text>
     </comment>
@@ -193,12 +265,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Всё плохо</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="183">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -299,9 +395,6 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Лабораторная работа №2 max=20</t>
-  </si>
-  <si>
     <t>Лабораторная работа №3 max=20</t>
   </si>
   <si>
@@ -859,6 +952,9 @@
   </si>
   <si>
     <t>~</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +2017,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1957,19 +2053,19 @@
         <v>43049</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,19 +2073,19 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -2012,13 +2108,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -2047,13 +2143,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -2082,13 +2178,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -2117,19 +2213,19 @@
         <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>5</v>
@@ -2152,13 +2248,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -2187,13 +2283,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -2222,13 +2318,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -2257,13 +2353,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -2292,19 +2388,19 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>5</v>
@@ -2327,13 +2423,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -2362,19 +2458,19 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>
@@ -2397,13 +2493,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -2432,19 +2528,19 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -2467,19 +2563,19 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -2502,16 +2598,16 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>5</v>
@@ -2537,13 +2633,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -2572,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -2607,13 +2703,13 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -2642,13 +2738,13 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -2677,19 +2773,19 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>5</v>
@@ -2712,13 +2808,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -2747,19 +2843,19 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>5</v>
@@ -2782,19 +2878,19 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -2817,19 +2913,19 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>5</v>
@@ -2852,13 +2948,13 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -2887,13 +2983,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -2922,19 +3018,19 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>5</v>
@@ -2957,19 +3053,19 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>5</v>
@@ -2992,13 +3088,13 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -3045,7 +3141,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3110,7 +3206,7 @@
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -3128,19 +3224,19 @@
         <v>43047</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3148,13 +3244,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -3183,19 +3279,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
@@ -3218,19 +3314,19 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>5</v>
@@ -3253,13 +3349,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -3286,13 +3382,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -3321,16 +3417,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -3356,19 +3452,19 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
@@ -3391,19 +3487,19 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
@@ -3426,13 +3522,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -3461,16 +3557,16 @@
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
@@ -3496,13 +3592,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -3531,16 +3627,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -3566,13 +3662,13 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -3601,19 +3697,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -3636,19 +3732,19 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -3671,13 +3767,13 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
@@ -3706,13 +3802,13 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -3741,13 +3837,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -3776,19 +3872,19 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>5</v>
@@ -3811,16 +3907,16 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>5</v>
@@ -3846,13 +3942,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -3881,13 +3977,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -3916,13 +4012,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -3951,19 +4047,19 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -3986,13 +4082,13 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
@@ -4037,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,7 +4240,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4176,23 +4272,23 @@
       <c r="E8" s="5">
         <v>43046</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5">
+        <v>43053</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,16 +4296,16 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>
@@ -4235,19 +4331,19 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
@@ -4270,20 +4366,20 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>"+?"</f>
         <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>5</v>
@@ -4306,13 +4402,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -4341,16 +4437,16 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -4376,19 +4472,19 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>5</v>
@@ -4411,19 +4507,19 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>5</v>
@@ -4446,13 +4542,13 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -4481,13 +4577,13 @@
         <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -4516,13 +4612,13 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -4551,19 +4647,19 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>5</v>
@@ -4586,19 +4682,19 @@
         <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>
@@ -4621,19 +4717,19 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>5</v>
@@ -4656,19 +4752,19 @@
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -4691,19 +4787,19 @@
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -4726,19 +4822,19 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>5</v>
@@ -4761,13 +4857,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -4796,13 +4892,13 @@
         <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -4831,19 +4927,19 @@
         <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>5</v>
@@ -4866,19 +4962,19 @@
         <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -4901,19 +4997,19 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>5</v>
@@ -4936,20 +5032,18 @@
         <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
         <v>5</v>
       </c>
@@ -4971,16 +5065,16 @@
         <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>5</v>
@@ -5006,16 +5100,16 @@
         <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>5</v>
@@ -5041,13 +5135,13 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
